--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FD256-023F-4E4E-A8FD-1857D44BAA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0793D-E1D3-4173-B78A-1372069E3C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="-360" windowWidth="21600" windowHeight="11385" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
+    <workbookView xWindow="5775" yWindow="75" windowWidth="21600" windowHeight="11385" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>N_Partículas</t>
   </si>
@@ -58,6 +58,12 @@
   <si>
     <t>Tasa_acierto</t>
   </si>
+  <si>
+    <t>Tiempo(min)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
@@ -65,7 +71,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,11 +110,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -424,18 +432,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD3AECA-E9AB-4388-889A-4AA1816DEA18}">
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -458,10 +468,16 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.8</v>
       </c>
@@ -483,11 +499,18 @@
       <c r="G3" s="1">
         <v>0.62359600000000004</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
         <v>245433</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <f>I3/60000</f>
+        <v>4.0905500000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.8</v>
       </c>
@@ -509,11 +532,18 @@
       <c r="G4" s="1">
         <v>0.57865200000000006</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
         <v>113053</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J19" si="0">I4/60000</f>
+        <v>1.8842166666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -535,11 +565,18 @@
       <c r="G5" s="1">
         <v>0.64044900000000005</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
         <v>117034</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9505666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -561,11 +598,18 @@
       <c r="G6" s="1">
         <v>0.61797800000000003</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
         <v>40367.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.67279166666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.8</v>
       </c>
@@ -587,11 +631,18 @@
       <c r="G7" s="1">
         <v>0.64044900000000005</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2">
         <v>234458</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9076333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -613,11 +664,18 @@
       <c r="G8" s="1">
         <v>0.62921300000000002</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2">
         <v>410788</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8464666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -639,11 +697,349 @@
       <c r="G9" s="1">
         <v>0.69101100000000004</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
         <v>578096</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6349333333333327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10">
+        <v>0.6</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.62921300000000002</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>709761</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>11.82935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.8</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.67415700000000001</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <v>809987</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>13.499783333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.8</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="C12">
+        <v>0.6</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.67415700000000001</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1099480</v>
+      </c>
+      <c r="J12" s="5">
+        <f>I12/60000</f>
+        <v>18.324666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.2</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>0.6</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.62359600000000004</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2">
+        <v>246701</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1116833333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.2</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14">
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.69101100000000004</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2">
+        <v>571802</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5300333333333338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.8</v>
+      </c>
+      <c r="B15">
+        <v>0.8</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.62359600000000004</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>246808</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1134666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.8</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16">
+        <v>0.9</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.69101100000000004</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>551276</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1879333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.8</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.62359600000000004</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2">
+        <v>247246</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1207666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="B18">
+        <v>0.8</v>
+      </c>
+      <c r="C18">
+        <v>0.6</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.69101100000000004</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2">
+        <v>600301</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>10.005016666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.8</v>
+      </c>
+      <c r="B19">
+        <v>0.8</v>
+      </c>
+      <c r="C19">
+        <v>0.6</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.64606699999999995</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>531242</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8540333333333336</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0793D-E1D3-4173-B78A-1372069E3C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7BAEA4-0B95-450A-9568-7AF9B3534C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="75" windowWidth="21600" windowHeight="11385" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -432,17 +432,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD3AECA-E9AB-4388-889A-4AA1816DEA18}">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -465,10 +465,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -496,11 +496,11 @@
       <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.62359600000000004</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
       </c>
       <c r="I3" s="2">
         <v>245433</v>
@@ -529,17 +529,17 @@
       <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.57865200000000006</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
       </c>
       <c r="I4" s="2">
         <v>113053</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J19" si="0">I4/60000</f>
+        <f t="shared" ref="J4:J23" si="0">I4/60000</f>
         <v>1.8842166666666667</v>
       </c>
     </row>
@@ -562,11 +562,11 @@
       <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.64044900000000005</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
       </c>
       <c r="I5" s="2">
         <v>117034</v>
@@ -595,11 +595,11 @@
       <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.61797800000000003</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
       </c>
       <c r="I6" s="2">
         <v>40367.5</v>
@@ -628,11 +628,11 @@
       <c r="F7">
         <v>20</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.64044900000000005</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
       </c>
       <c r="I7" s="2">
         <v>234458</v>
@@ -661,11 +661,11 @@
       <c r="F8">
         <v>20</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.62921300000000002</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
       </c>
       <c r="I8" s="2">
         <v>410788</v>
@@ -694,11 +694,11 @@
       <c r="F9">
         <v>20</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.69101100000000004</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
       </c>
       <c r="I9" s="3">
         <v>578096</v>
@@ -727,11 +727,11 @@
       <c r="F10">
         <v>20</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.62921300000000002</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
       </c>
       <c r="I10" s="2">
         <v>709761</v>
@@ -760,11 +760,11 @@
       <c r="F11">
         <v>20</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.67415700000000001</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
       </c>
       <c r="I11" s="2">
         <v>809987</v>
@@ -793,11 +793,11 @@
       <c r="F12">
         <v>20</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.67415700000000001</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
       </c>
       <c r="I12" s="2">
         <v>1099480</v>
@@ -826,11 +826,11 @@
       <c r="F13">
         <v>20</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.62359600000000004</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
       </c>
       <c r="I13" s="2">
         <v>246701</v>
@@ -859,11 +859,11 @@
       <c r="F14">
         <v>20</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.69101100000000004</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
       </c>
       <c r="I14" s="2">
         <v>571802</v>
@@ -892,11 +892,11 @@
       <c r="F15">
         <v>20</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.62359600000000004</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
       </c>
       <c r="I15" s="2">
         <v>246808</v>
@@ -925,11 +925,11 @@
       <c r="F16">
         <v>20</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.69101100000000004</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
       </c>
       <c r="I16" s="2">
         <v>551276</v>
@@ -958,11 +958,11 @@
       <c r="F17">
         <v>40</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.62359600000000004</v>
-      </c>
-      <c r="H17">
-        <v>7</v>
       </c>
       <c r="I17" s="2">
         <v>247246</v>
@@ -991,11 +991,11 @@
       <c r="F18">
         <v>40</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
         <v>0.69101100000000004</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
       </c>
       <c r="I18" s="2">
         <v>600301</v>
@@ -1024,11 +1024,11 @@
       <c r="F19">
         <v>20</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
         <v>0.64606699999999995</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
       </c>
       <c r="I19" s="2">
         <v>531242</v>
@@ -1036,6 +1036,138 @@
       <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>8.8540333333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.8</v>
+      </c>
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+      <c r="C20">
+        <v>0.6</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.65168499999999996</v>
+      </c>
+      <c r="I20" s="2">
+        <v>220281</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6713499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.8</v>
+      </c>
+      <c r="B21">
+        <v>0.8</v>
+      </c>
+      <c r="C21">
+        <v>0.6</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.64606699999999995</v>
+      </c>
+      <c r="I21" s="2">
+        <v>212878</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5479666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.8</v>
+      </c>
+      <c r="B22">
+        <v>0.8</v>
+      </c>
+      <c r="C22">
+        <v>0.6</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.62359600000000004</v>
+      </c>
+      <c r="I22" s="2">
+        <v>330790</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5131666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.8</v>
+      </c>
+      <c r="B23">
+        <v>0.8</v>
+      </c>
+      <c r="C23">
+        <v>0.6</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.67415700000000001</v>
+      </c>
+      <c r="I23" s="2">
+        <v>333887</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5647833333333336</v>
       </c>
     </row>
   </sheetData>

--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7BAEA4-0B95-450A-9568-7AF9B3534C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAA50D-D28E-45F9-9D24-0E36A2BED2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
@@ -432,10 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD3AECA-E9AB-4388-889A-4AA1816DEA18}">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,36 +446,69 @@
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
+      <c r="A2">
+        <v>0.8</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.62359600000000004</v>
+      </c>
+      <c r="I2" s="2">
+        <v>245433</v>
+      </c>
+      <c r="J2" s="4">
+        <f>I2/60000</f>
+        <v>4.0905500000000004</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -488,7 +522,7 @@
         <v>0.6</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -500,14 +534,14 @@
         <v>7</v>
       </c>
       <c r="H3" s="1">
-        <v>0.62359600000000004</v>
+        <v>0.57865200000000006</v>
       </c>
       <c r="I3" s="2">
-        <v>245433</v>
+        <v>113053</v>
       </c>
       <c r="J3" s="4">
-        <f>I3/60000</f>
-        <v>4.0905500000000004</v>
+        <f t="shared" ref="J3:J23" si="0">I3/60000</f>
+        <v>1.8842166666666667</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -521,7 +555,7 @@
         <v>0.6</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -533,14 +567,14 @@
         <v>7</v>
       </c>
       <c r="H4" s="1">
-        <v>0.57865200000000006</v>
+        <v>0.64044900000000005</v>
       </c>
       <c r="I4" s="2">
-        <v>113053</v>
+        <v>117034</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J23" si="0">I4/60000</f>
-        <v>1.8842166666666667</v>
+        <f t="shared" si="0"/>
+        <v>1.9505666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -554,7 +588,7 @@
         <v>0.6</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -566,14 +600,14 @@
         <v>7</v>
       </c>
       <c r="H5" s="1">
-        <v>0.64044900000000005</v>
+        <v>0.61797800000000003</v>
       </c>
       <c r="I5" s="2">
-        <v>117034</v>
+        <v>40367.5</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>1.9505666666666666</v>
+        <v>0.67279166666666668</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -587,7 +621,7 @@
         <v>0.6</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -599,14 +633,14 @@
         <v>7</v>
       </c>
       <c r="H6" s="1">
-        <v>0.61797800000000003</v>
+        <v>0.64044900000000005</v>
       </c>
       <c r="I6" s="2">
-        <v>40367.5</v>
+        <v>234458</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0.67279166666666668</v>
+        <v>3.9076333333333335</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,7 +654,7 @@
         <v>0.6</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -632,14 +666,14 @@
         <v>7</v>
       </c>
       <c r="H7" s="1">
-        <v>0.64044900000000005</v>
+        <v>0.62921300000000002</v>
       </c>
       <c r="I7" s="2">
-        <v>234458</v>
+        <v>410788</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="0"/>
-        <v>3.9076333333333335</v>
+        <v>6.8464666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -653,7 +687,7 @@
         <v>0.6</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -665,14 +699,14 @@
         <v>7</v>
       </c>
       <c r="H8" s="1">
-        <v>0.62921300000000002</v>
-      </c>
-      <c r="I8" s="2">
-        <v>410788</v>
+        <v>0.69101100000000004</v>
+      </c>
+      <c r="I8" s="3">
+        <v>578096</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>6.8464666666666663</v>
+        <v>9.6349333333333327</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -686,7 +720,7 @@
         <v>0.6</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -698,14 +732,14 @@
         <v>7</v>
       </c>
       <c r="H9" s="1">
-        <v>0.69101100000000004</v>
-      </c>
-      <c r="I9" s="3">
-        <v>578096</v>
+        <v>0.62921300000000002</v>
+      </c>
+      <c r="I9" s="2">
+        <v>709761</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="0"/>
-        <v>9.6349333333333327</v>
+        <v>11.82935</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -719,7 +753,7 @@
         <v>0.6</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -731,14 +765,14 @@
         <v>7</v>
       </c>
       <c r="H10" s="1">
-        <v>0.62921300000000002</v>
+        <v>0.67415700000000001</v>
       </c>
       <c r="I10" s="2">
-        <v>709761</v>
+        <v>809987</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>11.82935</v>
+        <v>13.499783333333333</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -752,7 +786,7 @@
         <v>0.6</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -767,16 +801,16 @@
         <v>0.67415700000000001</v>
       </c>
       <c r="I11" s="2">
-        <v>809987</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>13.499783333333333</v>
+        <v>1099480</v>
+      </c>
+      <c r="J11" s="5">
+        <f>I11/60000</f>
+        <v>18.324666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="B12">
         <v>0.8</v>
@@ -785,7 +819,7 @@
         <v>0.6</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -797,14 +831,14 @@
         <v>7</v>
       </c>
       <c r="H12" s="1">
-        <v>0.67415700000000001</v>
+        <v>0.62359600000000004</v>
       </c>
       <c r="I12" s="2">
-        <v>1099480</v>
-      </c>
-      <c r="J12" s="5">
-        <f>I12/60000</f>
-        <v>18.324666666666666</v>
+        <v>246701</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1116833333333336</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -818,7 +852,7 @@
         <v>0.6</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -830,28 +864,28 @@
         <v>7</v>
       </c>
       <c r="H13" s="1">
-        <v>0.62359600000000004</v>
+        <v>0.69101100000000004</v>
       </c>
       <c r="I13" s="2">
-        <v>246701</v>
+        <v>571802</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>4.1116833333333336</v>
+        <v>9.5300333333333338</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="B14">
         <v>0.8</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -863,14 +897,14 @@
         <v>7</v>
       </c>
       <c r="H14" s="1">
-        <v>0.69101100000000004</v>
+        <v>0.62359600000000004</v>
       </c>
       <c r="I14" s="2">
-        <v>571802</v>
+        <v>246808</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>9.5300333333333338</v>
+        <v>4.1134666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -884,7 +918,7 @@
         <v>0.9</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -896,14 +930,14 @@
         <v>7</v>
       </c>
       <c r="H15" s="1">
-        <v>0.62359600000000004</v>
+        <v>0.69101100000000004</v>
       </c>
       <c r="I15" s="2">
-        <v>246808</v>
+        <v>551276</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>4.1134666666666666</v>
+        <v>9.1879333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -914,29 +948,29 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>40</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
       <c r="G16">
         <v>7</v>
       </c>
       <c r="H16" s="1">
-        <v>0.69101100000000004</v>
+        <v>0.62359600000000004</v>
       </c>
       <c r="I16" s="2">
-        <v>551276</v>
+        <v>247246</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>9.1879333333333335</v>
+        <v>4.1207666666666665</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -950,7 +984,7 @@
         <v>0.6</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -962,14 +996,14 @@
         <v>7</v>
       </c>
       <c r="H17" s="1">
-        <v>0.62359600000000004</v>
+        <v>0.69101100000000004</v>
       </c>
       <c r="I17" s="2">
-        <v>247246</v>
+        <v>600301</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>4.1207666666666665</v>
+        <v>10.005016666666666</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -989,20 +1023,20 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>0.69101100000000004</v>
+        <v>0.64606699999999995</v>
       </c>
       <c r="I18" s="2">
-        <v>600301</v>
+        <v>531242</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>10.005016666666666</v>
+        <v>8.8540333333333336</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1016,26 +1050,26 @@
         <v>0.6</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>20</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H19" s="1">
-        <v>0.64606699999999995</v>
+        <v>0.65168499999999996</v>
       </c>
       <c r="I19" s="2">
-        <v>531242</v>
+        <v>220281</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>8.8540333333333336</v>
+        <v>3.6713499999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -1061,14 +1095,14 @@
         <v>7</v>
       </c>
       <c r="H20" s="1">
-        <v>0.65168499999999996</v>
+        <v>0.64606699999999995</v>
       </c>
       <c r="I20" s="2">
-        <v>220281</v>
+        <v>212878</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="0"/>
-        <v>3.6713499999999999</v>
+        <v>3.5479666666666665</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1082,10 +1116,10 @@
         <v>0.6</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -1094,14 +1128,14 @@
         <v>7</v>
       </c>
       <c r="H21" s="1">
-        <v>0.64606699999999995</v>
+        <v>0.62359600000000004</v>
       </c>
       <c r="I21" s="2">
-        <v>212878</v>
+        <v>330790</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="0"/>
-        <v>3.5479666666666665</v>
+        <v>5.5131666666666668</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1118,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -1127,14 +1161,14 @@
         <v>7</v>
       </c>
       <c r="H22" s="1">
-        <v>0.62359600000000004</v>
+        <v>0.67415700000000001</v>
       </c>
       <c r="I22" s="2">
-        <v>330790</v>
+        <v>333887</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="0"/>
-        <v>5.5131666666666668</v>
+        <v>5.5647833333333336</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1148,10 +1182,10 @@
         <v>0.6</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>20</v>
@@ -1160,14 +1194,14 @@
         <v>7</v>
       </c>
       <c r="H23" s="1">
-        <v>0.67415700000000001</v>
+        <v>0.67977500000000002</v>
       </c>
       <c r="I23" s="2">
-        <v>333887</v>
+        <v>237506</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="0"/>
-        <v>5.5647833333333336</v>
+        <v>3.9584333333333332</v>
       </c>
     </row>
   </sheetData>
